--- a/Question_Set2/Role-specific skills/Blockchain Software Development.xlsx
+++ b/Question_Set2/Role-specific skills/Blockchain Software Development.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Your project manager asked you to transfer X amount of ETH (ether) to an XYZ address. However, you entered the wrong amount of ETH and broadcast the transaction.  Which of the following strategies should you use to address your mistake and ensure the current transaction amount is broadcast?', 'ques_type': 2, 'options': ['Rebroadcast the correct transaction amount with a higher gas fee.', 'Contact the node provider to drop the faulty transaction and redo the transaction with the correct ETH amount.', 'Rebroadcast the correct transaction amount on the same node with a lower gas fee.', 'Rebroadcast the correct transaction on a different node.'], 'score': 'Rebroadcast the correct transaction amount with a higher gas fee.'}, {'title': "You are asked to design an application that requires public data access with a high level of security so that nobody but the asset owner can change the asset's ownership information. Which of the following ledgers should you choose?", 'ques_type': 2, 'options': ['Distributed database', 'Distributed centralized ledger', 'Distributed decentralized ledger', 'Hyperledger'], 'score': 'Distributed decentralized ledger'}, {'title': 'You came back from lunch and saw your colleague distressed about a loop iteration in a smart contract consuming unexpected gas. You want to help them by solving this loop problem.  What should be your initial approach to help?', 'ques_type': 2, 'options': ['Use events to do the calculation off-chain, then remit afterward using oracles.', 'Optimize existing code without touching the loop itself.', 'Reduce loop iterations wherever applicable.', 'Eliminate loops by predetermined complex calculations and storing data in a data structure.'], 'score': 'Eliminate loops by predetermined complex calculations and storing data in a data structure.'}, {'title': 'As a senior blockchain developer in a multinational company, you are asked to develop a smart contract that can place digital art in OpenSea. The client’s budget is also low, so they want to prevent gas expenditures as much as possible. Your time is also valuable, so you must be as efficient as possible by limiting the number of transactions over the blockchain for multiple pieces of art. Which of the following OpenZeppelin standard implementations should you use?', 'ques_type': 2, 'options': ['ERC721a', 'ERC721', 'ERC1155', 'ERC20'], 'score': 'ERC721a'}]</t>
+    <t>questions = [
+    {
+        "title": "Your project manager asked you to transfer X amount of ETH (ether) to an XYZ address. However, you entered the wrong amount of ETH and broadcast the transaction.  Which of the following strategies should you use to address your mistake and ensure the current transaction amount is broadcast?",
+        "ques_type": 2,
+        "options": [
+            "Rebroadcast the correct transaction amount with a higher gas fee.",
+            "Contact the node provider to drop the faulty transaction and redo the transaction with the correct ETH amount.",
+            "Rebroadcast the correct transaction amount on the same node with a lower gas fee.",
+            "Rebroadcast the correct transaction on a different node."
+        ],
+        "score": "Rebroadcast the correct transaction amount with a higher gas fee."
+    },
+    {
+        "title": "You are asked to design an application that requires public data access with a high level of security so that nobody but the asset owner can change the asset's ownership information. Which of the following ledgers should you choose?",
+        "ques_type": 2,
+        "options": [
+            "Distributed database",
+            "Distributed centralized ledger",
+            "Distributed decentralized ledger",
+            "Hyperledger"
+        ],
+        "score": "Distributed decentralized ledger"
+    },
+    {
+        "title": "You came back from lunch and saw your colleague distressed about a loop iteration in a smart contract consuming unexpected gas. You want to help them by solving this loop problem.  What should be your initial approach to help?",
+        "ques_type": 2,
+        "options": [
+            "Use events to do the calculation off-chain, then remit afterward using oracles.",
+            "Optimize existing code without touching the loop itself.",
+            "Reduce loop iterations wherever applicable.",
+            "Eliminate loops by predetermined complex calculations and storing data in a data structure."
+        ],
+        "score": "Eliminate loops by predetermined complex calculations and storing data in a data structure."
+    },
+    {
+        "title": "As a senior blockchain developer in a multinational company, you are asked to develop a smart contract that can place digital art in OpenSea. The client\u2019s budget is also low, so they want to prevent gas expenditures as much as possible. Your time is also valuable, so you must be as efficient as possible by limiting the number of transactions over the blockchain for multiple pieces of art. Which of the following OpenZeppelin standard implementations should you use?",
+        "ques_type": 2,
+        "options": [
+            "ERC721a",
+            "ERC721",
+            "ERC1155",
+            "ERC20"
+        ],
+        "score": "ERC721a"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
